--- a/biology/Zoologie/Formation_de_Bissekty/Formation_de_Bissekty.xlsx
+++ b/biology/Zoologie/Formation_de_Bissekty/Formation_de_Bissekty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La formation de Bissekty, parfois appelée formation de Bissekt est une formation géologique affleurant dans le désert de Kyzyl Kum en Ouzbékistan, datée du Crétacé supérieur, et un site paléontologique riche en fossiles.
@@ -512,7 +524,9 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation de Bissekty est datée du Crétacé supérieur principalement du Turonien, soit il y a entre 93,9 et 89,8 ± 0,3 Ma (millions d'années).
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette formation géologique est caractérisée par des faciès de grès et de conglomérats déposés lors d'une phase de régression marine. Les fossiles qu'elle renferme sont très variés, indiquant des environnements marins, d'eaux douces ou saumâtres et terrestres[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette formation géologique est caractérisée par des faciès de grès et de conglomérats déposés lors d'une phase de régression marine. Les fossiles qu'elle renferme sont très variés, indiquant des environnements marins, d'eaux douces ou saumâtres et terrestres.
 Elle coiffe la formation de Dzheirantui qui elle s'est déposée uniquement en environnement marin. De même, la formation d'Aitym qui la recouvre témoigne d'environnements côtiers uniquement marins.
 </t>
         </is>
@@ -575,12 +591,11 @@
           <t>Paléofaune d'invertébrés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce indéterminée de corail marin.
-Arthropodes
-Mollusques
-Quatre espèces marines indéterminées : une ammonite de la famille des Placenticeratidae, un taret et deux bivalves appartenant aux groupes des Trigoniidae et des Veneroida.
 </t>
         </is>
       </c>
@@ -606,31 +621,238 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Paléofaune d'invertébrés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mollusques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre espèces marines indéterminées : une ammonite de la famille des Placenticeratidae, un taret et deux bivalves appartenant aux groupes des Trigoniidae et des Veneroida.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Paléofaune de vertébrés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation de Bissekty est connue comme celle qui renferme le plus grand nombre de fossiles du Turonien en Eurasie et la faune la plus variée d'euthériens du Crétacé supérieur au monde [1].
-Sauf indication contraire, ce tableau récapitulatif est basé sur l'étude de la formation réalisée en 2009 par Cory Redman et Lindsey Leighton[1].
-Amphibiens
-Une espèce indéterminée d'Albanerpetontidae (famille éteinte de batraciens avec une morphologie apparente faisant penser à des salamandres). Une espèce indéterminée de Gobiatidae (grenouille).
-Poissons cartilagineux
-Crocodylomorphes
-Lézards
-Trois espèces indéterminées : un gekko, un iguane (Priscagamidae) et un scinque.
-Mammifères et autres thérapsides
-Dinosaures ornithischiens
-Plésiosaures
-Ptérosaures
-Poissons à nageoires rayonnées
-Quatre espèces indéterminées d'un esturgeon, de deux poissons osseux de la famille des albulidés et d'un pholidophoriforme.
-Dinosaures théropodes
-Un ornithomimosaure connu à partir de restes fragmentaires[7].
-Une espèce indéterminée de tyrannosauridé connue à partir de dents isolées[8].
-Enantiornithes
-Tortues
-Une tortue à carapace molle indéterminée de la famille des Trionychidae, tolérante aux eaux saumâtres.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation de Bissekty est connue comme celle qui renferme le plus grand nombre de fossiles du Turonien en Eurasie et la faune la plus variée d'euthériens du Crétacé supérieur au monde .
+Sauf indication contraire, ce tableau récapitulatif est basé sur l'étude de la formation réalisée en 2009 par Cory Redman et Lindsey Leighton.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Paléofaune de vertébrés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une espèce indéterminée d'Albanerpetontidae (famille éteinte de batraciens avec une morphologie apparente faisant penser à des salamandres). Une espèce indéterminée de Gobiatidae (grenouille).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Paléofaune de vertébrés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lézards</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois espèces indéterminées : un gekko, un iguane (Priscagamidae) et un scinque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Paléofaune de vertébrés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poissons à nageoires rayonnées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre espèces indéterminées d'un esturgeon, de deux poissons osseux de la famille des albulidés et d'un pholidophoriforme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Paléofaune de vertébrés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dinosaures théropodes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ornithomimosaure connu à partir de restes fragmentaires.
+Une espèce indéterminée de tyrannosauridé connue à partir de dents isolées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Bissekty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Paléofaune de vertébrés</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tortues</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une tortue à carapace molle indéterminée de la famille des Trionychidae, tolérante aux eaux saumâtres.
 </t>
         </is>
       </c>
